--- a/biology/Médecine/Examen_clinique_stomatologique/Examen_clinique_stomatologique.xlsx
+++ b/biology/Médecine/Examen_clinique_stomatologique/Examen_clinique_stomatologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'examen clinique stomatologique est en médecine une partie de l'examen clinique qui permet de trouver des problèmes stomatologiques concernant la bouche et les dents.
 Il y est entre autres important de connaître la numérotation des dents qui attribue à chaque dent un numéro pour les dents définitives et les dents de lait.
@@ -512,7 +524,9 @@
           <t>Signes physiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On demandera au patient s'il a :
 une constriction permanente des mâchoires, correspondant à une ankylose mandibulaire ;
@@ -547,14 +561,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Examen la bouche fermée
-On recherche:
+          <t>Examen la bouche fermée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On recherche:
 Une asymétrie faciale.
 La motricité faciale.
-La sensibilité faciale épicritique.
-Examen la bouche ouverte
-Avant l'inspection des dents
-Inspection du vestibule, partie située en avant des arcades dentaires, à l'intérieur des joues et derrière les lèvres.
+La sensibilité faciale épicritique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Examen_clinique_stomatologique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_stomatologique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Signes fonctionnels</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Examen la bouche ouverte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Avant l'inspection des dents</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Inspection du vestibule, partie située en avant des arcades dentaires, à l'intérieur des joues et derrière les lèvres.
 Inspection des arcades dentaires, l'arcade dentaire supérieure doit recouvrir l'arcade dentaire inférieure, les points inter-incisifs (entre les deux incisives centrales d'une même arcade) doivent être positionnés verticalement.
 Inspection de la mobilité mandibulaire:
 Mouvement de propulsion de la mandibule.
@@ -564,19 +620,174 @@
 La face interne de la joue.
 Le plancher buccal.
 Inspection de la motricité linguale de gauche à droite et de haut en bas.
-Étude de la sensibilité linguale épicritique, proprioceptive et thermo-algésique.
-Inspection des dents
-On recherchera :
+Étude de la sensibilité linguale épicritique, proprioceptive et thermo-algésique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Examen_clinique_stomatologique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_stomatologique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Signes fonctionnels</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Examen la bouche ouverte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Inspection des dents</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On recherchera :
 S'il y a des dents surnuméraire ou manquantes.
 Une plaque dentaire.
 Une perte de substance.
 La vitalité de la dent ce qui permet de savoir si la dent est morte.
-Anomalie de l'os mandibulaire ou maxillaire
-On inspectera la forme de ces os.
-L'articulé dentaire
-Y a-t-il une béance entre l'arcade supérieure et inférieure.
-Palpation
-De l'orbite de l'œil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Examen_clinique_stomatologique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_stomatologique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Signes fonctionnels</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Examen la bouche ouverte</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Anomalie de l'os mandibulaire ou maxillaire</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On inspectera la forme de ces os.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Examen_clinique_stomatologique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_stomatologique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Signes fonctionnels</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Examen la bouche ouverte</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>L'articulé dentaire</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Y a-t-il une béance entre l'arcade supérieure et inférieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Examen_clinique_stomatologique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_stomatologique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Signes fonctionnels</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Examen la bouche ouverte</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Palpation</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>De l'orbite de l'œil.
 Du massif facial, a t-il une mobilité.
 De la mandibule.
 De la muqueuse.</t>
